--- a/index/ExcelTemplate/FansFollowingInfo.xlsx
+++ b/index/ExcelTemplate/FansFollowingInfo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolvvv/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolvvv/PycharmProjects/weoboSpider/index/ExcelTemplate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7CE1CD3-113E-A642-91B8-0DCB1B531053}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C494DA4-EAA8-8F41-97F6-A6F2CE1EE478}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15800" xr2:uid="{04B0A072-F986-4E46-9D37-459CF032128F}"/>
   </bookViews>
@@ -25,9 +25,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>test</t>
+    <t>备注：请在下面黄色空格方框中填入所需爬取用户Uid和接收数据的Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FuctionName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserUid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetMail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FansFollowingInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +51,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -51,16 +67,39 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,19 +107,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -392,18 +459,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B7FE908-859F-184D-A859-BFEC28C1E116}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
